--- a/public/importFiles/numery_seryjne.xlsx
+++ b/public/importFiles/numery_seryjne.xlsx
@@ -5,48 +5,46 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t xml:space="preserve">Lp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dane zainstalowanych urządzeń</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urządzenie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGB-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGK-2-130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGK-2-170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGS-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGB-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGB-K-20</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>Dane urządzenia</t>
+  </si>
+  <si>
+    <t>Urządzenie</t>
+  </si>
+  <si>
+    <t>Numer seryjny</t>
+  </si>
+  <si>
+    <t>FGB-28</t>
+  </si>
+  <si>
+    <t>MGK-2-130</t>
+  </si>
+  <si>
+    <t>MGK-2-170</t>
+  </si>
+  <si>
+    <t>CGS-24</t>
+  </si>
+  <si>
+    <t>CGB-24</t>
+  </si>
+  <si>
+    <t>CGB-K-20</t>
   </si>
 </sst>
 </file>
@@ -54,13 +52,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,9 +119,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -152,16 +155,16 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="54.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.6377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,19 +178,21 @@
     </row>
     <row r="2" customFormat="false" ht="58.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>1166468167</v>
       </c>
     </row>
@@ -196,9 +201,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>1356527222</v>
       </c>
     </row>
@@ -207,9 +212,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="n">
         <v>1346525771</v>
       </c>
     </row>
@@ -218,9 +223,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>1246492349</v>
       </c>
     </row>
@@ -229,9 +234,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>1276501434</v>
       </c>
     </row>
@@ -240,9 +245,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>1256494156</v>
       </c>
     </row>
@@ -251,9 +256,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>1276503841</v>
       </c>
     </row>
@@ -262,9 +267,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>1276501439</v>
       </c>
     </row>
@@ -273,9 +278,9 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>1446559121</v>
       </c>
     </row>
@@ -284,9 +289,9 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="n">
         <v>1166468002</v>
       </c>
     </row>
@@ -297,7 +302,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
